--- a/docs/p/20240406yukyu.xlsx
+++ b/docs/p/20240406yukyu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michinobu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{A277EC13-95AE-4842-B722-019A47E98295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F22553-B626-374B-B21F-1639FEC3D5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="780" windowWidth="24940" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="有休計画・実績" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="38">
+  <si>
+    <t>有休残</t>
+  </si>
   <si>
     <t>出勤日数</t>
     <rPh sb="0" eb="4">
@@ -67,6 +69,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>祝日など</t>
+    <rPh sb="0" eb="2">
+      <t>シュク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有給休暇</t>
+    <rPh sb="0" eb="4">
+      <t>ユウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>病欠など</t>
     <rPh sb="0" eb="2">
       <t>ビョウケテゥ</t>
@@ -84,6 +100,13 @@
     <t>予定</t>
     <rPh sb="0" eb="2">
       <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非営業日</t>
+    <rPh sb="0" eb="4">
+      <t>ヒエイギョウビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -116,6 +139,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>有休日数</t>
+  </si>
+  <si>
+    <t>週休</t>
+    <rPh sb="0" eb="2">
+      <t>テイキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>起算年</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">キサン </t>
@@ -133,84 +166,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>参考</t>
+    <t>週休</t>
     <rPh sb="0" eb="2">
-      <t>サンコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>内閣府 国民の祝日について</t>
-    <rPh sb="0" eb="3">
-      <t>ナイカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コクミn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www8.cao.go.jp/chosei/shukujitsu/gaiyou.html</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>○</t>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>有給休暇</t>
-    <rPh sb="0" eb="4">
-      <t>ユウキュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>制限</t>
-    <rPh sb="0" eb="2">
-      <t>セイゲn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半日休の有給休暇計上には対応していません。</t>
-    <rPh sb="0" eb="3">
-      <t>ハンニティ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>ユウキュウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ケイジョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Excel 以外のアプリでうまく動作しない場合は、関数などを修正してください。</t>
-    <rPh sb="6" eb="8">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Google Sheet の曜日の表示には対応しています。</t>
-    <rPh sb="17" eb="19">
-      <t>ヨウビ</t>
+      <t xml:space="preserve">テイキュウヨウビ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -219,6 +177,10 @@
     <rPh sb="1" eb="2">
       <t>ニティ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -264,30 +226,29 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>祝日など</t>
+    <t>制限</t>
     <rPh sb="0" eb="2">
-      <t>シュク</t>
+      <t>セイゲn</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>非営業日</t>
-    <rPh sb="0" eb="4">
-      <t>ヒエイギョウビ</t>
-    </rPh>
+    <t>・</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>週休</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">テイキュウヨウビ </t>
+    <t>半日休の有給休暇計上には対応していません。</t>
+    <rPh sb="0" eb="3">
+      <t>ハンニティ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>週休</t>
-    <rPh sb="0" eb="2">
-      <t>テイキュウ</t>
+    <rPh sb="4" eb="8">
+      <t>ユウキュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タイオウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -308,6 +269,50 @@
     <rPh sb="14" eb="16">
       <t>タイオウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Excel 以外のアプリでうまく動作しない場合は、関数などを修正してください。</t>
+    <rPh sb="6" eb="8">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Google Sheet の曜日の表示には対応しています。</t>
+    <rPh sb="17" eb="19">
+      <t>ヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>参考</t>
+    <rPh sb="0" eb="2">
+      <t>サンコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内閣府 国民の祝日について</t>
+    <rPh sb="0" eb="3">
+      <t>ナイカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コクミn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www8.cao.go.jp/chosei/shukujitsu/gaiyou.html</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -367,7 +372,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,8 +403,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -531,12 +542,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -607,17 +646,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -625,16 +667,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -651,6 +690,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1002,7 +1053,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -1019,16 +1070,21 @@
     <col min="43" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:42">
-      <c r="B1" s="32" t="str">
-        <f>O7 &amp; "年 有給休暇取得計画・実績"</f>
-        <v>2024年 有給休暇取得計画・実績</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+    <row r="1" spans="2:42" ht="16" customHeight="1">
+      <c r="B1" s="26" t="str">
+        <f>O8 &amp; "年度 有給休暇取得計画・実績"</f>
+        <v>2024年度 有給休暇取得計画・実績</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="H1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="31"/>
       <c r="K1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:42">
@@ -1039,27 +1095,27 @@
       </c>
       <c r="E2" s="6">
         <f t="shared" ref="E2:G2" si="0">COUNTA(E5:E370)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F2" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H2" s="6">
-        <f>AB3</f>
-        <v>229</v>
-      </c>
-      <c r="I2" s="6">
-        <f ca="1">AC3</f>
-        <v>5</v>
+      <c r="H2" s="25">
+        <f>O7-E2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="25">
+        <f>O7-F2</f>
+        <v>10</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="8">
-        <f>O8</f>
+        <f>O9</f>
         <v>4</v>
       </c>
       <c r="M2" s="8">
@@ -1107,10 +1163,10 @@
         <v>3</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
@@ -1126,29 +1182,29 @@
     </row>
     <row r="3" spans="2:42">
       <c r="B3" s="35" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="33"/>
+        <v>5</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="32"/>
       <c r="G3" s="34" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I3" s="33"/>
       <c r="K3" s="9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L3" s="10">
         <f t="shared" ref="L3:W3" si="2">DSUM($AA$4:$AC$370,"予定",AE3:AE4)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3" s="10">
         <f t="shared" si="2"/>
@@ -1172,15 +1228,15 @@
       </c>
       <c r="R3" s="10">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S3" s="10">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T3" s="10">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U3" s="10">
         <f t="shared" si="2"/>
@@ -1194,52 +1250,52 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="Y3" s="27" t="s">
-        <v>32</v>
+      <c r="Y3" s="42" t="s">
+        <v>10</v>
       </c>
       <c r="AB3" s="3">
         <f>SUM(AB5:AB370)</f>
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="AC3" s="3">
         <f ca="1">SUM(AC5:AC370)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE3" s="11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AF3" s="11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AG3" s="11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AH3" s="11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AI3" s="11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AJ3" s="11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AK3" s="11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AL3" s="11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AM3" s="11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AN3" s="11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AO3" s="11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AP3" s="11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:42">
@@ -1247,24 +1303,24 @@
       <c r="C4" s="38"/>
       <c r="D4" s="34"/>
       <c r="E4" s="9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G4" s="34"/>
       <c r="H4" s="9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L4" s="13">
         <f t="shared" ref="L4:W4" ca="1" si="3">DSUM($AA$4:$AC$370,"実績",AE3:AE4)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M4" s="13">
         <f t="shared" ca="1" si="3"/>
@@ -1310,15 +1366,15 @@
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y4" s="27"/>
+      <c r="Y4" s="42"/>
       <c r="AA4" s="14" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AB4" s="14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AC4" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AE4" s="11">
         <f t="shared" ref="AE4:AP4" si="4">L2</f>
@@ -1371,7 +1427,7 @@
     </row>
     <row r="5" spans="2:42">
       <c r="B5" s="15">
-        <f>DATE(O7,O8,1)</f>
+        <f>DATE(O8,O9,1)</f>
         <v>45383</v>
       </c>
       <c r="C5" s="16" t="str">
@@ -1429,7 +1485,7 @@
         <v>○</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Y6" s="19" t="str">
         <f t="shared" ref="Y6:Y69" si="9">IF(B6="","",IF(D6&lt;&gt;"","○",IF(OR(WEEKDAY(B6)=$W$9,WEEKDAY(B6)=$W$10,WEEKDAY(B6)=$W$11,WEEKDAY(B6)=$W$12,WEEKDAY(B6)=$W$13,WEEKDAY(B6)=$W$14,WEEKDAY(B6)=$W$15),"○","")))</f>
@@ -1469,16 +1525,16 @@
         <f t="shared" ca="1" si="8"/>
         <v>○</v>
       </c>
-      <c r="M7" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="31"/>
-      <c r="O7" s="28">
-        <v>2024</v>
-      </c>
-      <c r="P7" s="29"/>
-      <c r="W7" s="27" t="s">
-        <v>34</v>
+      <c r="M7" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="28"/>
+      <c r="O7" s="29">
+        <v>10</v>
+      </c>
+      <c r="P7" s="30"/>
+      <c r="W7" s="42" t="s">
+        <v>16</v>
       </c>
       <c r="Y7" s="19" t="str">
         <f t="shared" si="9"/>
@@ -1518,15 +1574,15 @@
         <f t="shared" ca="1" si="8"/>
         <v>○</v>
       </c>
-      <c r="M8" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="31"/>
-      <c r="O8" s="28">
-        <v>4</v>
-      </c>
-      <c r="P8" s="29"/>
-      <c r="W8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="28"/>
+      <c r="O8" s="29">
+        <v>2024</v>
+      </c>
+      <c r="P8" s="30"/>
+      <c r="W8" s="42"/>
       <c r="Y8" s="19" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -1565,18 +1621,16 @@
         <f t="shared" ca="1" si="8"/>
         <v>○</v>
       </c>
-      <c r="M9" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="28" t="s">
+      <c r="M9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="29"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="29">
+        <v>4</v>
+      </c>
+      <c r="P9" s="30"/>
       <c r="W9" s="20">
-        <f>IF(O9&lt;&gt;"",1,"")</f>
+        <f>IF(O10&lt;&gt;"",1,"")</f>
         <v>1</v>
       </c>
       <c r="Y9" s="19" t="str">
@@ -1617,14 +1671,18 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="M10" s="25"/>
+      <c r="M10" s="39" t="s">
+        <v>19</v>
+      </c>
       <c r="N10" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="28"/>
-      <c r="P10" s="29"/>
+        <v>20</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="30"/>
       <c r="W10" s="20" t="str">
-        <f>IF(O10&lt;&gt;"",2,"")</f>
+        <f>IF(O11&lt;&gt;"",2,"")</f>
         <v/>
       </c>
       <c r="Y10" s="19" t="str">
@@ -1665,14 +1723,14 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="M11" s="25"/>
+      <c r="M11" s="40"/>
       <c r="N11" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="O11" s="28"/>
-      <c r="P11" s="29"/>
+        <v>22</v>
+      </c>
+      <c r="O11" s="29"/>
+      <c r="P11" s="30"/>
       <c r="W11" s="20" t="str">
-        <f>IF(O11&lt;&gt;"",3,"")</f>
+        <f>IF(O12&lt;&gt;"",3,"")</f>
         <v/>
       </c>
       <c r="Y11" s="19" t="str">
@@ -1711,16 +1769,16 @@
       </c>
       <c r="I12" s="18" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="M12" s="25"/>
+        <v>○</v>
+      </c>
+      <c r="M12" s="40"/>
       <c r="N12" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="O12" s="28"/>
-      <c r="P12" s="29"/>
+        <v>23</v>
+      </c>
+      <c r="O12" s="29"/>
+      <c r="P12" s="30"/>
       <c r="W12" s="20" t="str">
-        <f>IF(O12&lt;&gt;"",4,"")</f>
+        <f>IF(O13&lt;&gt;"",4,"")</f>
         <v/>
       </c>
       <c r="Y12" s="19" t="str">
@@ -1735,9 +1793,9 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AC12" s="20" t="str">
+      <c r="AC12" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:42">
@@ -1759,16 +1817,16 @@
       </c>
       <c r="I13" s="18" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="M13" s="25"/>
+        <v>○</v>
+      </c>
+      <c r="M13" s="40"/>
       <c r="N13" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="O13" s="28"/>
-      <c r="P13" s="29"/>
+        <v>24</v>
+      </c>
+      <c r="O13" s="29"/>
+      <c r="P13" s="30"/>
       <c r="W13" s="20" t="str">
-        <f>IF(O13&lt;&gt;"",5,"")</f>
+        <f>IF(O14&lt;&gt;"",5,"")</f>
         <v/>
       </c>
       <c r="Y13" s="19" t="str">
@@ -1783,9 +1841,9 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AC13" s="20" t="str">
+      <c r="AC13" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:42">
@@ -1807,16 +1865,16 @@
       </c>
       <c r="I14" s="18" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="M14" s="25"/>
+        <v>○</v>
+      </c>
+      <c r="M14" s="40"/>
       <c r="N14" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="O14" s="28"/>
-      <c r="P14" s="29"/>
+        <v>25</v>
+      </c>
+      <c r="O14" s="29"/>
+      <c r="P14" s="30"/>
       <c r="W14" s="20" t="str">
-        <f>IF(O14&lt;&gt;"",6,"")</f>
+        <f>IF(O15&lt;&gt;"",6,"")</f>
         <v/>
       </c>
       <c r="Y14" s="19" t="str">
@@ -1831,9 +1889,9 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AC14" s="20" t="str">
+      <c r="AC14" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:42">
@@ -1855,18 +1913,16 @@
       </c>
       <c r="I15" s="18" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="M15" s="26"/>
+        <v>○</v>
+      </c>
+      <c r="M15" s="40"/>
       <c r="N15" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="O15" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="P15" s="29"/>
+        <v>26</v>
+      </c>
+      <c r="O15" s="29"/>
+      <c r="P15" s="30"/>
       <c r="W15" s="20">
-        <f>IF(O15&lt;&gt;"",7,"")</f>
+        <f>IF(O16&lt;&gt;"",7,"")</f>
         <v>7</v>
       </c>
       <c r="Y15" s="19" t="str">
@@ -1881,9 +1937,9 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AC15" s="20" t="str">
+      <c r="AC15" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:42">
@@ -1905,8 +1961,16 @@
       </c>
       <c r="I16" s="18" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
+        <v>○</v>
+      </c>
+      <c r="M16" s="41"/>
+      <c r="N16" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="30"/>
       <c r="Y16" s="19" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -1919,9 +1983,9 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AC16" s="20" t="str">
+      <c r="AC16" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:29">
@@ -1945,9 +2009,6 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="Y17" s="19" t="str">
         <f t="shared" si="9"/>
         <v>○</v>
@@ -1986,11 +2047,8 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="M18" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>21</v>
+      <c r="M18" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="Y18" s="19" t="str">
         <f t="shared" si="9"/>
@@ -2028,13 +2086,13 @@
       </c>
       <c r="I19" s="18" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>○</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y19" s="19" t="str">
         <f t="shared" si="9"/>
@@ -2048,9 +2106,9 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AC19" s="20" t="str">
+      <c r="AC19" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:29">
@@ -2072,13 +2130,13 @@
       </c>
       <c r="I20" s="18" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>○</v>
       </c>
       <c r="M20" s="22" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="Y20" s="19" t="str">
         <f t="shared" si="9"/>
@@ -2092,9 +2150,9 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AC20" s="20" t="str">
+      <c r="AC20" s="20">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:29">
@@ -2118,8 +2176,11 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
+      <c r="M21" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="N21" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y21" s="19" t="str">
         <f t="shared" si="9"/>
@@ -2159,6 +2220,9 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
+      <c r="N22" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="Y22" s="19" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -2187,7 +2251,7 @@
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -2198,9 +2262,6 @@
       <c r="I23" s="18" t="str">
         <f t="shared" ca="1" si="8"/>
         <v/>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="Y23" s="19" t="str">
         <f t="shared" si="9"/>
@@ -2240,11 +2301,8 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="M24" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>15</v>
+      <c r="M24" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="Y24" s="19" t="str">
         <f t="shared" si="9"/>
@@ -2284,8 +2342,11 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="N25" s="23" t="s">
-        <v>16</v>
+      <c r="M25" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="Y25" s="19" t="str">
         <f t="shared" si="9"/>
@@ -2325,6 +2386,9 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
+      <c r="N26" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="Y26" s="19" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -2580,7 +2644,7 @@
         <v>(月)</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
@@ -2620,14 +2684,12 @@
         <v>(火)</v>
       </c>
       <c r="D34" s="17"/>
-      <c r="E34" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="E34" s="17"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="18" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>○</v>
       </c>
       <c r="I34" s="18" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -2641,9 +2703,9 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="AB34" s="20" t="str">
+      <c r="AB34" s="20">
         <f t="shared" si="10"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AC34" s="20" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -2661,7 +2723,7 @@
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
@@ -2701,7 +2763,7 @@
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
@@ -2740,7 +2802,7 @@
         <v>(金)</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
@@ -2780,7 +2842,7 @@
         <v>(土)</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
@@ -2820,7 +2882,7 @@
         <v>(日)</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
@@ -2860,7 +2922,7 @@
         <v>(月)</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
@@ -4079,7 +4141,7 @@
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F72" s="17"/>
       <c r="G72" s="17"/>
@@ -5411,7 +5473,7 @@
       </c>
       <c r="D107" s="17"/>
       <c r="E107" s="17" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F107" s="17"/>
       <c r="G107" s="17"/>
@@ -5526,7 +5588,7 @@
         <v>(月)</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E110" s="17"/>
       <c r="F110" s="17"/>
@@ -5947,7 +6009,7 @@
       </c>
       <c r="D121" s="17"/>
       <c r="E121" s="17" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F121" s="17"/>
       <c r="G121" s="17"/>
@@ -6443,7 +6505,7 @@
       </c>
       <c r="D134" s="17"/>
       <c r="E134" s="17" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F134" s="17"/>
       <c r="G134" s="17"/>
@@ -6483,7 +6545,7 @@
       </c>
       <c r="D135" s="17"/>
       <c r="E135" s="17" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F135" s="17"/>
       <c r="G135" s="17"/>
@@ -6560,7 +6622,7 @@
         <v>(日)</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E137" s="17"/>
       <c r="F137" s="17"/>
@@ -6600,7 +6662,7 @@
         <v>(月)</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E138" s="17"/>
       <c r="F138" s="17"/>
@@ -7932,7 +7994,7 @@
         <v>(月)</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E173" s="17"/>
       <c r="F173" s="17"/>
@@ -8162,7 +8224,7 @@
         <v>(日)</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E179" s="17"/>
       <c r="F179" s="17"/>
@@ -8202,7 +8264,7 @@
         <v>(月)</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E180" s="17"/>
       <c r="F180" s="17"/>
@@ -8888,14 +8950,12 @@
         <v>(金)</v>
       </c>
       <c r="D198" s="17"/>
-      <c r="E198" s="17" t="s">
-        <v>17</v>
-      </c>
+      <c r="E198" s="17"/>
       <c r="F198" s="17"/>
       <c r="G198" s="17"/>
       <c r="H198" s="18" t="str">
         <f t="shared" ref="H198:H261" si="31">IF(AB198=1,"○","")</f>
-        <v/>
+        <v>○</v>
       </c>
       <c r="I198" s="18" t="str">
         <f t="shared" ref="I198:I261" ca="1" si="32">IF(AC198=1,"○","")</f>
@@ -8909,9 +8969,9 @@
         <f t="shared" si="30"/>
         <v>10</v>
       </c>
-      <c r="AB198" s="20" t="str">
+      <c r="AB198" s="20">
         <f t="shared" ref="AB198:AB261" si="34">IF(B198="","",IF(OR(Y198&lt;&gt;"",E198&lt;&gt;""),"",1))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AC198" s="20" t="str">
         <f t="shared" ref="AC198:AC261" ca="1" si="35">IF(B198="","",IF(OR(B198&gt;TODAY(),Y198&lt;&gt;"",F198&lt;&gt;"",G198&lt;&gt;""),"",1))</f>
@@ -9004,7 +9064,7 @@
         <v>(月)</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E201" s="17"/>
       <c r="F201" s="17"/>
@@ -9159,7 +9219,7 @@
       </c>
       <c r="D205" s="17"/>
       <c r="E205" s="17" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F205" s="17"/>
       <c r="G205" s="17"/>
@@ -9692,14 +9752,12 @@
         <v>(金)</v>
       </c>
       <c r="D219" s="17"/>
-      <c r="E219" s="17" t="s">
-        <v>17</v>
-      </c>
+      <c r="E219" s="17"/>
       <c r="F219" s="17"/>
       <c r="G219" s="17"/>
       <c r="H219" s="18" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>○</v>
       </c>
       <c r="I219" s="18" t="str">
         <f t="shared" ca="1" si="32"/>
@@ -9713,9 +9771,9 @@
         <f t="shared" si="30"/>
         <v>11</v>
       </c>
-      <c r="AB219" s="20" t="str">
+      <c r="AB219" s="20">
         <f t="shared" si="34"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AC219" s="20" t="str">
         <f t="shared" ca="1" si="35"/>
@@ -9770,7 +9828,7 @@
         <v>(日)</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E221" s="17"/>
       <c r="F221" s="17"/>
@@ -9810,7 +9868,7 @@
         <v>(月)</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E222" s="17"/>
       <c r="F222" s="17"/>
@@ -10534,7 +10592,7 @@
         <v>(土)</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E241" s="17"/>
       <c r="F241" s="17"/>
@@ -11828,14 +11886,12 @@
         <v>(金)</v>
       </c>
       <c r="D275" s="17"/>
-      <c r="E275" s="17" t="s">
-        <v>17</v>
-      </c>
+      <c r="E275" s="17"/>
       <c r="F275" s="17"/>
       <c r="G275" s="17"/>
       <c r="H275" s="18" t="str">
         <f t="shared" si="39"/>
-        <v/>
+        <v>○</v>
       </c>
       <c r="I275" s="18" t="str">
         <f t="shared" ca="1" si="40"/>
@@ -11849,9 +11905,9 @@
         <f t="shared" si="38"/>
         <v>12</v>
       </c>
-      <c r="AB275" s="20" t="str">
+      <c r="AB275" s="20">
         <f t="shared" si="42"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AC275" s="20" t="str">
         <f t="shared" ca="1" si="43"/>
@@ -11906,7 +11962,7 @@
         <v>(日)</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E277" s="17"/>
       <c r="F277" s="17"/>
@@ -11946,7 +12002,7 @@
         <v>(月)</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E278" s="17"/>
       <c r="F278" s="17"/>
@@ -11986,7 +12042,7 @@
         <v>(火)</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E279" s="17"/>
       <c r="F279" s="17"/>
@@ -12026,7 +12082,7 @@
         <v>(水)</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E280" s="17"/>
       <c r="F280" s="17"/>
@@ -12066,7 +12122,7 @@
         <v>(木)</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E281" s="17"/>
       <c r="F281" s="17"/>
@@ -12106,7 +12162,7 @@
         <v>(金)</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E282" s="17"/>
       <c r="F282" s="17"/>
@@ -12488,7 +12544,7 @@
         <v>(月)</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E292" s="17"/>
       <c r="F292" s="17"/>
@@ -13592,7 +13648,7 @@
         <v>(火)</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E321" s="17"/>
       <c r="F321" s="17"/>
@@ -14050,7 +14106,7 @@
         <v>(日)</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E333" s="17"/>
       <c r="F333" s="17"/>
@@ -14090,7 +14146,7 @@
         <v>(月)</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E334" s="17"/>
       <c r="F334" s="17"/>
@@ -15004,7 +15060,7 @@
         <v>(木)</v>
       </c>
       <c r="D358" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E358" s="17"/>
       <c r="F358" s="17"/>
@@ -15045,7 +15101,7 @@
       </c>
       <c r="D359" s="17"/>
       <c r="E359" s="17" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F359" s="17"/>
       <c r="G359" s="17"/>
@@ -15493,16 +15549,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="M9:M15"/>
+  <mergeCells count="23">
+    <mergeCell ref="M10:M16"/>
     <mergeCell ref="Y3:Y4"/>
     <mergeCell ref="W7:W8"/>
+    <mergeCell ref="O16:P16"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="O13:P13"/>
@@ -15511,9 +15562,17 @@
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="O8:P8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="O7:P7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B3:C4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B5:I370">
@@ -15522,7 +15581,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="N25" r:id="rId1" xr:uid="{80524E25-A111-C443-A02E-7CE143749844}"/>
+    <hyperlink ref="N26" r:id="rId1" xr:uid="{80524E25-A111-C443-A02E-7CE143749844}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
